--- a/Jogos_do_Dia/2023-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.77</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -695,13 +695,13 @@
         <v>2.44</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AD2" t="n">
         <v>1.29</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.87</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -757,10 +757,10 @@
         <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="L3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.62</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>1.03</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1135,13 +1135,13 @@
         <v>2.78</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
         <v>1.41</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.92</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1206,7 +1206,7 @@
         <v>2.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1245,28 +1245,28 @@
         <v>3.03</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1364,19 +1364,19 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF8" t="n">
         <v>1.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2042,131 +2042,133 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45041.45833333334</v>
+        <v>45041.41666666666</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V15" t="n">
-        <v>1.92</v>
+        <v>0.86</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Z15" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8428</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>45041.45833333334</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ES Tunis</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Etoile du Sahel</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2218,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>2.24</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>2.17</v>
+        <v>1.54</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2260,87 +2262,87 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45041.52083333334</v>
+        <v>45041.45833333334</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>ES Tunis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Etoile du Sahel</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>2.93</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>5.95</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="L17" t="n">
-        <v>4.57</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.61</v>
+        <v>2.6</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.32</v>
       </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.14</v>
+        <v>2.24</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>1.09</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2381,242 +2383,242 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="I18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J18" t="n">
-        <v>10.25</v>
+        <v>16</v>
       </c>
       <c r="K18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.35</v>
+        <v>4.57</v>
       </c>
       <c r="M18" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="X18" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.71</v>
+        <v>3.17</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45041.54166666666</v>
+        <v>45041.52083333334</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Šibenik</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>2.93</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="T19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.32</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.48</v>
-      </c>
       <c r="V19" t="n">
-        <v>0.67</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.42</v>
+        <v>2.71</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45041.54166666666</v>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Šibenik</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2643,34 +2645,34 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.58</v>
+        <v>0.67</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2707,26 +2709,26 @@
         <v>45041.54166666666</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2741,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2768,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.92</v>
+        <v>1.58</v>
       </c>
       <c r="W21" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.93</v>
+        <v>2.67</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2810,23 +2812,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45041.54166666666</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2878,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="W22" t="n">
-        <v>0.67</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.17</v>
+        <v>1.66</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.49</v>
+        <v>2.93</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2920,221 +2922,221 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45041.58333333334</v>
+        <v>45041.54166666666</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Helsingør</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Næstved</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.55</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="K23" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>2.79</v>
       </c>
       <c r="M23" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="T23" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.52</v>
+        <v>0.6</v>
       </c>
       <c r="W23" t="n">
-        <v>1.44</v>
+        <v>0.67</v>
       </c>
       <c r="X23" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45041.60416666666</v>
+        <v>45041.58333333334</v>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>FC Helsingør</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Næstved</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.64</v>
+        <v>2.55</v>
       </c>
       <c r="G24" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AE24" t="n">
         <v>1.6</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J24" t="n">
-        <v>16</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AF24" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="25">
@@ -3151,406 +3153,406 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.14</v>
       </c>
-      <c r="G25" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.54</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>2.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="U25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.78</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.33</v>
-      </c>
       <c r="Y25" t="n">
-        <v>1.29</v>
+        <v>1.99</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.62</v>
+        <v>3.77</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="AG25" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="AH25" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>45041.60416666666</v>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.47</v>
+        <v>2.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>1.51</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J26" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="L26" t="n">
-        <v>4.95</v>
+        <v>2.65</v>
       </c>
       <c r="M26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.53</v>
       </c>
-      <c r="N26" t="n">
-        <v>2.3</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="U26" t="n">
-        <v>1.17</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="X26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1.84</v>
       </c>
-      <c r="Y26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45041.625</v>
+        <v>45041.60416666666</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V27" t="n">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="X27" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45041.64583333334</v>
+        <v>45041.625</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.64</v>
+        <v>2.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="X28" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3580,331 +3582,331 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45041.64583333334</v>
       </c>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.17</v>
+        <v>5.4</v>
       </c>
       <c r="G29" t="n">
-        <v>3.24</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.02</v>
+        <v>1.49</v>
       </c>
       <c r="I29" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="L29" t="n">
-        <v>2.79</v>
+        <v>4.88</v>
       </c>
       <c r="M29" t="n">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="N29" t="n">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="V29" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="X29" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.28</v>
+        <v>1.86</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.72</v>
+        <v>3.32</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG29" t="n">
         <v>2.38</v>
       </c>
-      <c r="AD29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>2.98</v>
-      </c>
       <c r="AH29" t="n">
-        <v>4.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45041.64583333334</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>England National League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45041.65625</v>
+        <v>45041.64583333334</v>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="G31" t="n">
-        <v>3.43</v>
+        <v>3.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
         <v>1.03</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="X31" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3917,104 +3919,104 @@
         <v>45041.65625</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Halifax Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="G32" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>4.06</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="L32" t="n">
         <v>3.8</v>
       </c>
       <c r="M32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N32" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
         <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
       <c r="X32" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="33">
@@ -4027,324 +4029,324 @@
         <v>45041.65625</v>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Halifax Town</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.13</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="J33" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M33" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="S33" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE33" t="n">
         <v>1.52</v>
       </c>
-      <c r="W33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>England National League</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45041.65625</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>3.83</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.96</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J34" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="L34" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M34" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="X34" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.53</v>
+        <v>2.27</v>
       </c>
       <c r="AH34" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45041.65625</v>
       </c>
       <c r="C35" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="G35" t="n">
-        <v>3.16</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="I35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="L35" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="N35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="T35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U35" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.81</v>
       </c>
       <c r="W35" t="n">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="X35" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="36">
@@ -4357,104 +4359,104 @@
         <v>45041.65625</v>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="G36" t="n">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.81</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="L36" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="T36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U36" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>1.71</v>
+        <v>0.86</v>
       </c>
       <c r="X36" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.4</v>
+        <v>6.75</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="AH36" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="37">
@@ -4480,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4501,10 +4503,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="N37" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -4577,104 +4579,104 @@
         <v>45041.65625</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="L38" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="M38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q38" t="n">
         <v>1.9</v>
       </c>
-      <c r="N38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.26</v>
       </c>
-      <c r="T38" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.93</v>
-      </c>
       <c r="Z38" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>3.16</v>
+        <v>2.45</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4700,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.89</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.63</v>
+        <v>5.6</v>
       </c>
       <c r="I39" t="n">
         <v>1.05</v>
@@ -4721,10 +4723,10 @@
         <v>3.74</v>
       </c>
       <c r="M39" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -4763,28 +4765,28 @@
         <v>2.95</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="40">
@@ -4810,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G40" t="n">
-        <v>3.69</v>
+        <v>3.95</v>
       </c>
       <c r="H40" t="n">
-        <v>5.48</v>
+        <v>5.4</v>
       </c>
       <c r="I40" t="n">
         <v>1.05</v>
@@ -4831,10 +4833,10 @@
         <v>3.74</v>
       </c>
       <c r="M40" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="N40" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -4873,28 +4875,28 @@
         <v>2.72</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41">
@@ -4920,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G41" t="n">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4941,10 +4943,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N41" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -4983,28 +4985,28 @@
         <v>2.86</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5030,10 +5032,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.81</v>
+        <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>2.25</v>
@@ -5051,10 +5053,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5114,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="43">
@@ -5140,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.99</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
         <v>1.05</v>
@@ -5161,10 +5163,10 @@
         <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
@@ -5230,527 +5232,527 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45041.66666666666</v>
+        <v>45041.65625</v>
       </c>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.07</v>
+        <v>1.9</v>
       </c>
       <c r="G44" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>1.07</v>
       </c>
       <c r="J44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M44" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z44" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>2.77</v>
-      </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>45041.66666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.19</v>
+        <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="H45" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="I45" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J45" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="L45" t="n">
-        <v>4.15</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="N45" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S45" t="n">
         <v>1.62</v>
       </c>
-      <c r="R45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.33</v>
-      </c>
       <c r="T45" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="U45" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="V45" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W45" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="X45" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AC45" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.28</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45041.70833333334</v>
+        <v>45041.66666666666</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="G46" t="n">
-        <v>3.26</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="J46" t="n">
-        <v>9.15</v>
+        <v>14</v>
       </c>
       <c r="K46" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="L46" t="n">
-        <v>2.94</v>
+        <v>4.15</v>
       </c>
       <c r="M46" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="O46" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X46" t="n">
         <v>1.63</v>
       </c>
-      <c r="T46" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Y46" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AA46" t="n">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AF46" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="AH46" t="n">
-        <v>3.95</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45041.75</v>
+        <v>45041.70833333334</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Universitario Popayán</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.9</v>
+        <v>2.86</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="I47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="J47" t="n">
-        <v>7.75</v>
+        <v>9.15</v>
       </c>
       <c r="K47" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="L47" t="n">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="M47" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="N47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O47" t="n">
         <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="T47" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="V47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X47" t="n">
         <v>1.5</v>
       </c>
-      <c r="W47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.27</v>
-      </c>
       <c r="Y47" t="n">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
         <v>45041.75</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga</t>
+          <t>Universitario Popayán</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="K48" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M48" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="S48" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="T48" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U48" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5784,47 +5786,47 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45041.84027777778</v>
+        <v>45041.75</v>
       </c>
       <c r="C49" t="n">
         <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Atlético Bucaramanga</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G49" t="n">
-        <v>2.97</v>
+        <v>3.32</v>
       </c>
       <c r="H49" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
       </c>
       <c r="J49" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="L49" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O49" t="n">
         <v>1.46</v>
@@ -5833,57 +5835,277 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45041.8125</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45041.84027777778</v>
+      </c>
+      <c r="C51" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1.87</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R51" t="n">
         <v>1.8</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S51" t="n">
         <v>1.32</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T51" t="n">
         <v>1.34</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U51" t="n">
         <v>1.62</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V51" t="n">
         <v>1.57</v>
       </c>
-      <c r="W49" t="n">
+      <c r="W51" t="n">
         <v>0.57</v>
       </c>
-      <c r="X49" t="n">
+      <c r="X51" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y51" t="n">
         <v>1.04</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="Z51" t="n">
         <v>2.44</v>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X2" t="n">
         <v>1.56</v>
@@ -790,10 +790,10 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="X3" t="n">
         <v>1.17</v>
@@ -900,10 +900,10 @@
         <v>2.48</v>
       </c>
       <c r="V4" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="W4" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="X4" t="n">
         <v>1.88</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="X5" t="n">
         <v>1.37</v>
@@ -1120,10 +1120,10 @@
         <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="X6" t="n">
         <v>1.45</v>
@@ -1230,10 +1230,10 @@
         <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>1.86</v>
@@ -1340,19 +1340,19 @@
         <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X8" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Y8" t="n">
         <v>1.43</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="AA8" t="n">
         <v>1.67</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.22</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1450,10 +1450,10 @@
         <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="X9" t="n">
         <v>1.7</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.18</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1560,10 +1560,10 @@
         <v>1.27</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
         <v>1.83</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.76</v>
+        <v>4.51</v>
       </c>
       <c r="G11" t="n">
-        <v>3.82</v>
+        <v>3.71</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>1.1</v>
@@ -1685,28 +1685,28 @@
         <v>1.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.92</v>
+        <v>5.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1780,10 +1780,10 @@
         <v>1.17</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1795,28 +1795,28 @@
         <v>1.74</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="13">
@@ -1890,7 +1890,7 @@
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1905,28 +1905,28 @@
         <v>4.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="14">
@@ -2000,10 +2000,10 @@
         <v>1.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
         <v>1.66</v>
@@ -2110,10 +2110,10 @@
         <v>1.41</v>
       </c>
       <c r="V15" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
         <v>1.49</v>
@@ -2262,111 +2262,111 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45041.45833333334</v>
+        <v>45041.52083333334</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ES Tunis</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Etoile du Sahel</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>2.93</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="J17" t="n">
-        <v>5.95</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.55</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.6</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1.15</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -2383,320 +2383,320 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="I18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>10.25</v>
       </c>
       <c r="K18" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="L18" t="n">
-        <v>4.57</v>
+        <v>3.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.17</v>
+        <v>2.71</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.25</v>
+        <v>8.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45041.52083333334</v>
+        <v>45041.54166666666</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Šibenik</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
         <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>2.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="N19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U19" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.71</v>
+        <v>2.42</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45041.54166666666</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Šibenik</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="M20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="U20" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="V20" t="n">
-        <v>0.67</v>
+        <v>1.54</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="21">
@@ -2709,26 +2709,26 @@
         <v>45041.54166666666</v>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2770,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.58</v>
+        <v>0.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.67</v>
+        <v>2.93</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2812,87 +2812,87 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45041.54166666666</v>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>ES Tunis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Etoile du Sahel</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>0.92</v>
+        <v>2.06</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>2.24</v>
       </c>
       <c r="X22" t="n">
-        <v>1.27</v>
+        <v>2.17</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.93</v>
+        <v>3.26</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -2945,10 +2945,10 @@
         <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.71</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>2.79</v>
       </c>
       <c r="M23" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -2990,10 +2990,10 @@
         <v>3.1</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="W23" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="X23" t="n">
         <v>1.32</v>
@@ -3005,28 +3005,28 @@
         <v>2.49</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="24">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="G25" t="n">
-        <v>4.45</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3183,10 +3183,10 @@
         <v>4.45</v>
       </c>
       <c r="M25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="N25" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>3.15</v>
+        <v>3.02</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I26" t="n">
         <v>1.08</v>
@@ -3293,10 +3293,10 @@
         <v>2.65</v>
       </c>
       <c r="M26" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="N26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.9</v>
+        <v>4.47</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3.62</v>
       </c>
       <c r="H27" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3406,7 +3406,7 @@
         <v>1.55</v>
       </c>
       <c r="N27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.27</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.4</v>
+        <v>4.01</v>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>3.59</v>
       </c>
       <c r="H29" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="I29" t="n">
         <v>1.03</v>
@@ -3623,10 +3623,10 @@
         <v>4.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="N29" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="I30" t="n">
         <v>1.09</v>
@@ -3733,10 +3733,10 @@
         <v>2.79</v>
       </c>
       <c r="M30" t="n">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="N30" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -3822,16 +3822,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="H31" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J31" t="n">
         <v>8.25</v>
@@ -3843,10 +3843,10 @@
         <v>2.95</v>
       </c>
       <c r="M31" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="O31" t="n">
         <v>1.5</v>
@@ -3885,28 +3885,28 @@
         <v>2.58</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I32" t="n">
         <v>1.03</v>
@@ -3953,10 +3953,10 @@
         <v>3.8</v>
       </c>
       <c r="M32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
         <v>1.35</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4.06</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
@@ -4063,10 +4063,10 @@
         <v>3.8</v>
       </c>
       <c r="M33" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>4.13</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4173,10 +4173,10 @@
         <v>3.1</v>
       </c>
       <c r="M34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>3.83</v>
       </c>
       <c r="H35" t="n">
-        <v>4.25</v>
+        <v>3.96</v>
       </c>
       <c r="I35" t="n">
         <v>1.04</v>
@@ -4283,10 +4283,10 @@
         <v>3.9</v>
       </c>
       <c r="M35" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.16</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="I36" t="n">
         <v>1.06</v>
@@ -4393,10 +4393,10 @@
         <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="H37" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N37" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>3.02</v>
       </c>
       <c r="H38" t="n">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="I38" t="n">
         <v>1.08</v>
@@ -4613,10 +4613,10 @@
         <v>2.9</v>
       </c>
       <c r="M38" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="N38" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O38" t="n">
         <v>1.47</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>3.89</v>
       </c>
       <c r="H39" t="n">
-        <v>5.6</v>
+        <v>4.63</v>
       </c>
       <c r="I39" t="n">
         <v>1.05</v>
@@ -4723,10 +4723,10 @@
         <v>3.74</v>
       </c>
       <c r="M39" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G40" t="n">
-        <v>3.95</v>
+        <v>3.69</v>
       </c>
       <c r="H40" t="n">
-        <v>5.4</v>
+        <v>5.48</v>
       </c>
       <c r="I40" t="n">
         <v>1.05</v>
@@ -4833,10 +4833,10 @@
         <v>3.74</v>
       </c>
       <c r="M40" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="N40" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="H41" t="n">
-        <v>4.45</v>
+        <v>4.26</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4943,10 +4943,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N41" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.25</v>
+        <v>2.81</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="H42" t="n">
         <v>2.25</v>
@@ -5053,10 +5053,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="I43" t="n">
         <v>1.05</v>
@@ -5163,10 +5163,10 @@
         <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N43" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="I44" t="n">
         <v>1.07</v>
@@ -5273,10 +5273,10 @@
         <v>2.95</v>
       </c>
       <c r="M44" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="N44" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="G45" t="n">
-        <v>3.35</v>
+        <v>3.09</v>
       </c>
       <c r="H45" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5383,10 +5383,10 @@
         <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O45" t="n">
         <v>1.46</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I46" t="n">
         <v>1.04</v>
@@ -5496,7 +5496,7 @@
         <v>1.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="H47" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="I47" t="n">
         <v>1.08</v>
@@ -5603,7 +5603,7 @@
         <v>2.94</v>
       </c>
       <c r="M47" t="n">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="N47" t="n">
         <v>1.62</v>
@@ -5767,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G49" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5865,28 +5865,28 @@
         <v>2.54</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="50">
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
         <v>1.07</v>
@@ -6043,10 +6043,10 @@
         <v>2.85</v>
       </c>
       <c r="M51" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="N51" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="O51" t="n">
         <v>1.46</v>
@@ -6085,28 +6085,28 @@
         <v>2.44</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE51" t="n">
         <v>1.95</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
